--- a/Code/Results/Cases/Case_8_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01577439142713</v>
+        <v>1.010699700284239</v>
       </c>
       <c r="D2">
-        <v>1.036160668288944</v>
+        <v>1.031971985926153</v>
       </c>
       <c r="E2">
-        <v>1.019290931090489</v>
+        <v>1.015213882802985</v>
       </c>
       <c r="F2">
-        <v>1.041404374999182</v>
+        <v>1.038104129160386</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056382658252714</v>
+        <v>1.054192137931009</v>
       </c>
       <c r="J2">
-        <v>1.037493316488182</v>
+        <v>1.032565027876364</v>
       </c>
       <c r="K2">
-        <v>1.047138205842996</v>
+        <v>1.043003169613438</v>
       </c>
       <c r="L2">
-        <v>1.030487898575783</v>
+        <v>1.026465256195453</v>
       </c>
       <c r="M2">
-        <v>1.052315513181442</v>
+        <v>1.049056959617781</v>
       </c>
       <c r="N2">
-        <v>1.038966675999742</v>
+        <v>1.027856112825609</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049976548765337</v>
+        <v>1.047397650956752</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044401062482232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041485986056057</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023068938492203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021312440975878</v>
+        <v>1.015258609351198</v>
       </c>
       <c r="D3">
-        <v>1.039879260764511</v>
+        <v>1.034921645739152</v>
       </c>
       <c r="E3">
-        <v>1.023890189833045</v>
+        <v>1.018917590835942</v>
       </c>
       <c r="F3">
-        <v>1.044991047846504</v>
+        <v>1.041080968700209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057847231777818</v>
+        <v>1.055251766358936</v>
       </c>
       <c r="J3">
-        <v>1.0412385004042</v>
+        <v>1.0353417789696</v>
       </c>
       <c r="K3">
-        <v>1.050026091874037</v>
+        <v>1.045126375837843</v>
       </c>
       <c r="L3">
-        <v>1.034226250841682</v>
+        <v>1.029314006898233</v>
       </c>
       <c r="M3">
-        <v>1.055078889666057</v>
+        <v>1.051213867915981</v>
       </c>
       <c r="N3">
-        <v>1.0427171785065</v>
+        <v>1.029412952971251</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052163544512341</v>
+        <v>1.049104681158631</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046440378078601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042984334050158</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023573586422118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024814665988464</v>
+        <v>1.018149788124287</v>
       </c>
       <c r="D4">
-        <v>1.042233815536538</v>
+        <v>1.036794686358582</v>
       </c>
       <c r="E4">
-        <v>1.026803542967118</v>
+        <v>1.02127183026222</v>
       </c>
       <c r="F4">
-        <v>1.047265959472619</v>
+        <v>1.042974487750453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058760323702956</v>
+        <v>1.055910787346032</v>
       </c>
       <c r="J4">
-        <v>1.043604226767752</v>
+        <v>1.037100345608325</v>
       </c>
       <c r="K4">
-        <v>1.051847897023738</v>
+        <v>1.046468422484669</v>
       </c>
       <c r="L4">
-        <v>1.036588887409133</v>
+        <v>1.031120126824378</v>
       </c>
       <c r="M4">
-        <v>1.056825526562211</v>
+        <v>1.05258050485039</v>
       </c>
       <c r="N4">
-        <v>1.04508626447284</v>
+        <v>1.030398918148838</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053545867336999</v>
+        <v>1.050186269164294</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04772941683895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043934236371502</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023889999045416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026276249178399</v>
+        <v>1.019357014358678</v>
       </c>
       <c r="D5">
-        <v>1.043219248718084</v>
+        <v>1.037579506516622</v>
       </c>
       <c r="E5">
-        <v>1.028022464016255</v>
+        <v>1.022257528545808</v>
       </c>
       <c r="F5">
-        <v>1.048217392062909</v>
+        <v>1.043767092434883</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059140034284375</v>
+        <v>1.056184532660518</v>
       </c>
       <c r="J5">
-        <v>1.044593197194381</v>
+        <v>1.037835999651507</v>
       </c>
       <c r="K5">
-        <v>1.052610361411379</v>
+        <v>1.04703081203188</v>
       </c>
       <c r="L5">
-        <v>1.037577623315555</v>
+        <v>1.031876488779757</v>
       </c>
       <c r="M5">
-        <v>1.057555821427787</v>
+        <v>1.053152400417668</v>
       </c>
       <c r="N5">
-        <v>1.046076639350911</v>
+        <v>1.030811370712308</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054123836320085</v>
+        <v>1.050638880047568</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048275625551941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044339715710718</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024023378101733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026530195770272</v>
+        <v>1.019565438100032</v>
       </c>
       <c r="D6">
-        <v>1.043393137214301</v>
+        <v>1.037717701567821</v>
       </c>
       <c r="E6">
-        <v>1.028236730211707</v>
+        <v>1.022429498368691</v>
       </c>
       <c r="F6">
-        <v>1.048383404266779</v>
+        <v>1.04390480480646</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059208080440979</v>
+        <v>1.056233724881131</v>
       </c>
       <c r="J6">
-        <v>1.044767874988108</v>
+        <v>1.037965361848495</v>
       </c>
       <c r="K6">
-        <v>1.052746778138107</v>
+        <v>1.047131635742879</v>
       </c>
       <c r="L6">
-        <v>1.037753208176442</v>
+        <v>1.032009940490064</v>
       </c>
       <c r="M6">
-        <v>1.057684689758991</v>
+        <v>1.053253049404965</v>
       </c>
       <c r="N6">
-        <v>1.046251565207141</v>
+        <v>1.030883898919982</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054225825076117</v>
+        <v>1.050718535868363</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048380728963445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044420552656629</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02404896328401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024860370811238</v>
+        <v>1.018225373695879</v>
       </c>
       <c r="D7">
-        <v>1.042271710175079</v>
+        <v>1.036854204218462</v>
       </c>
       <c r="E7">
-        <v>1.026848284968224</v>
+        <v>1.021347249246292</v>
       </c>
       <c r="F7">
-        <v>1.047297333238362</v>
+        <v>1.043023780597648</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058778305955917</v>
+        <v>1.05594014516509</v>
       </c>
       <c r="J7">
-        <v>1.043642971023407</v>
+        <v>1.037168164911073</v>
       </c>
       <c r="K7">
-        <v>1.051882539304013</v>
+        <v>1.04652442422731</v>
       </c>
       <c r="L7">
-        <v>1.036630227216238</v>
+        <v>1.03119176453287</v>
       </c>
       <c r="M7">
-        <v>1.056853741121275</v>
+        <v>1.052626424797555</v>
       </c>
       <c r="N7">
-        <v>1.045125063749782</v>
+        <v>1.030488889894145</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053568196873699</v>
+        <v>1.050222611242859</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047773809123551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043995798428778</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023915036035762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017697068776432</v>
+        <v>1.012408645279738</v>
       </c>
       <c r="D8">
-        <v>1.037459915033752</v>
+        <v>1.033097268236165</v>
       </c>
       <c r="E8">
-        <v>1.020895580818406</v>
+        <v>1.016637393657431</v>
       </c>
       <c r="F8">
-        <v>1.042650137544487</v>
+        <v>1.039214446128649</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056901362534502</v>
+        <v>1.05461922116529</v>
       </c>
       <c r="J8">
-        <v>1.038804081476727</v>
+        <v>1.033662921713403</v>
       </c>
       <c r="K8">
-        <v>1.048155293580427</v>
+        <v>1.043846829219747</v>
       </c>
       <c r="L8">
-        <v>1.031799755841061</v>
+        <v>1.02759661989808</v>
       </c>
       <c r="M8">
-        <v>1.053281789740084</v>
+        <v>1.049888193662145</v>
       </c>
       <c r="N8">
-        <v>1.040279302424918</v>
+        <v>1.028629375075455</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050741281599727</v>
+        <v>1.048055510460574</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045142931999317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042107558684457</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023299164064051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004369205736452</v>
+        <v>1.001526222824547</v>
       </c>
       <c r="D9">
-        <v>1.028523069015614</v>
+        <v>1.026067835002704</v>
       </c>
       <c r="E9">
-        <v>1.009849833005838</v>
+        <v>1.007832071410143</v>
       </c>
       <c r="F9">
-        <v>1.034059219393733</v>
+        <v>1.032140310221009</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053297239187794</v>
+        <v>1.052016465108668</v>
       </c>
       <c r="J9">
-        <v>1.029768613923642</v>
+        <v>1.027025201106718</v>
       </c>
       <c r="K9">
-        <v>1.041169729372668</v>
+        <v>1.038751677993046</v>
       </c>
       <c r="L9">
-        <v>1.022785099646306</v>
+        <v>1.020799344024457</v>
       </c>
       <c r="M9">
-        <v>1.046622863016917</v>
+        <v>1.044732600327096</v>
       </c>
       <c r="N9">
-        <v>1.031231003471524</v>
+        <v>1.024927325797262</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045471242387696</v>
+        <v>1.043975234904724</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040200563707711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038501544686068</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02207450038156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9951243149927809</v>
+        <v>0.9942204211120632</v>
       </c>
       <c r="D10">
-        <v>1.022376926949114</v>
+        <v>1.021413731379025</v>
       </c>
       <c r="E10">
-        <v>1.002258351335695</v>
+        <v>1.002029692030579</v>
       </c>
       <c r="F10">
-        <v>1.028215653648306</v>
+        <v>1.027490821888834</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050762325676347</v>
+        <v>1.050261817776842</v>
       </c>
       <c r="J10">
-        <v>1.023532722691137</v>
+        <v>1.022665238308144</v>
       </c>
       <c r="K10">
-        <v>1.036353580501602</v>
+        <v>1.035406826383049</v>
       </c>
       <c r="L10">
-        <v>1.016586949918641</v>
+        <v>1.016362396208258</v>
       </c>
       <c r="M10">
-        <v>1.042093492051851</v>
+        <v>1.041380848673403</v>
       </c>
       <c r="N10">
-        <v>1.024986256558202</v>
+        <v>1.022716374564995</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041937788023655</v>
+        <v>1.041373814364186</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036812008435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036154992819053</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021316435779424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9921050620626598</v>
+        <v>0.9919336690566332</v>
       </c>
       <c r="D11">
-        <v>1.020594271827056</v>
+        <v>1.02018789601992</v>
       </c>
       <c r="E11">
-        <v>1.000091735757443</v>
+        <v>1.000488264810657</v>
       </c>
       <c r="F11">
-        <v>1.026877790739177</v>
+        <v>1.026605191098618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050144924818349</v>
+        <v>1.049935615621353</v>
       </c>
       <c r="J11">
-        <v>1.021810008346369</v>
+        <v>1.021645910064883</v>
       </c>
       <c r="K11">
-        <v>1.035137987356344</v>
+        <v>1.034738882583352</v>
       </c>
       <c r="L11">
-        <v>1.015011922283761</v>
+        <v>1.0154009790431</v>
       </c>
       <c r="M11">
-        <v>1.041310028547878</v>
+        <v>1.04104222846648</v>
       </c>
       <c r="N11">
-        <v>1.023261095761467</v>
+        <v>1.022590379080222</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041752333952749</v>
+        <v>1.041540507352793</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035985322839448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03571874409144</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02137944723374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.991337652562333</v>
+        <v>0.9912813255245154</v>
       </c>
       <c r="D12">
-        <v>1.020236652678245</v>
+        <v>1.019916235239257</v>
       </c>
       <c r="E12">
-        <v>0.9996930199553108</v>
+        <v>1.000137597996607</v>
       </c>
       <c r="F12">
-        <v>1.026804405936871</v>
+        <v>1.026604265903609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050084054126164</v>
+        <v>1.049919922482031</v>
       </c>
       <c r="J12">
-        <v>1.021513197431719</v>
+        <v>1.021459314361111</v>
       </c>
       <c r="K12">
-        <v>1.034986155503802</v>
+        <v>1.034671566387561</v>
       </c>
       <c r="L12">
-        <v>1.014826103582351</v>
+        <v>1.015262162320722</v>
       </c>
       <c r="M12">
-        <v>1.041435483520329</v>
+        <v>1.041238923205423</v>
       </c>
       <c r="N12">
-        <v>1.022963863341273</v>
+        <v>1.022679291017955</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042176810026797</v>
+        <v>1.042021385478951</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035877973081904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035671150449276</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021492664181864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9922959565501767</v>
+        <v>0.9918434071243977</v>
       </c>
       <c r="D13">
-        <v>1.020990656351857</v>
+        <v>1.020369600847944</v>
       </c>
       <c r="E13">
-        <v>1.000669081695417</v>
+        <v>1.000679417167116</v>
       </c>
       <c r="F13">
-        <v>1.027739412429253</v>
+        <v>1.027299246935345</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050473468576542</v>
+        <v>1.050152742456816</v>
       </c>
       <c r="J13">
-        <v>1.022336154119752</v>
+        <v>1.021903125543176</v>
       </c>
       <c r="K13">
-        <v>1.035683740390007</v>
+        <v>1.035073926690326</v>
       </c>
       <c r="L13">
-        <v>1.015739483504741</v>
+        <v>1.015749621978416</v>
       </c>
       <c r="M13">
-        <v>1.042311473231472</v>
+        <v>1.041879138166475</v>
       </c>
       <c r="N13">
-        <v>1.023787988722198</v>
+        <v>1.022885251212073</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043145174568198</v>
+        <v>1.042803403105887</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036368698510732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035952894464858</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021663219046085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9937411452227788</v>
+        <v>0.992798720240052</v>
       </c>
       <c r="D14">
-        <v>1.022016836445935</v>
+        <v>1.021025745380217</v>
       </c>
       <c r="E14">
-        <v>1.001967070557309</v>
+        <v>1.001477715350958</v>
       </c>
       <c r="F14">
-        <v>1.028845437376814</v>
+        <v>1.02810815041132</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050946932564748</v>
+        <v>1.050433245007514</v>
       </c>
       <c r="J14">
-        <v>1.023412667826651</v>
+        <v>1.022510267219433</v>
       </c>
       <c r="K14">
-        <v>1.036551598752985</v>
+        <v>1.035578212838494</v>
       </c>
       <c r="L14">
-        <v>1.016868906206847</v>
+        <v>1.016388750181636</v>
       </c>
       <c r="M14">
-        <v>1.043259412849628</v>
+        <v>1.042535067150924</v>
       </c>
       <c r="N14">
-        <v>1.024866031202038</v>
+        <v>1.023089829131163</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.044067269681636</v>
+        <v>1.043494733464396</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036983722573214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036310993976902</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021815870616435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9944844842183277</v>
+        <v>0.993315409305048</v>
       </c>
       <c r="D15">
-        <v>1.022525246103891</v>
+        <v>1.021363397249987</v>
       </c>
       <c r="E15">
-        <v>1.002599672450085</v>
+        <v>1.001889126702097</v>
       </c>
       <c r="F15">
-        <v>1.029355928004558</v>
+        <v>1.028481093526683</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051169536161201</v>
+        <v>1.050566732979476</v>
       </c>
       <c r="J15">
-        <v>1.023936039121897</v>
+        <v>1.022816153756649</v>
       </c>
       <c r="K15">
-        <v>1.036964874140901</v>
+        <v>1.03582361718404</v>
       </c>
       <c r="L15">
-        <v>1.017401072739293</v>
+        <v>1.016703774563003</v>
       </c>
       <c r="M15">
-        <v>1.043675710090802</v>
+        <v>1.042816109699118</v>
       </c>
       <c r="N15">
-        <v>1.025390145744556</v>
+        <v>1.02318097312397</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044433732829802</v>
+        <v>1.043754306552134</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037281776498365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036490929638245</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02187647441119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9982331520888547</v>
+        <v>0.9960632984657218</v>
       </c>
       <c r="D16">
-        <v>1.024999879263893</v>
+        <v>1.023082810619882</v>
       </c>
       <c r="E16">
-        <v>1.005628847738289</v>
+        <v>1.003992638863513</v>
       </c>
       <c r="F16">
-        <v>1.031691061129913</v>
+        <v>1.030206693863838</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052195011562719</v>
+        <v>1.051197579044562</v>
       </c>
       <c r="J16">
-        <v>1.026440036076172</v>
+        <v>1.024356693934974</v>
       </c>
       <c r="K16">
-        <v>1.038896565062503</v>
+        <v>1.037011948377709</v>
       </c>
       <c r="L16">
-        <v>1.0198608286032</v>
+        <v>1.018253710251236</v>
       </c>
       <c r="M16">
-        <v>1.045475696206648</v>
+        <v>1.044016024356881</v>
       </c>
       <c r="N16">
-        <v>1.027897698661718</v>
+        <v>1.023639401808069</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045817865707175</v>
+        <v>1.04466411101093</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038650690304264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037334568416048</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022103533732131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000355025391797</v>
+        <v>0.9977032615868232</v>
       </c>
       <c r="D17">
-        <v>1.026363884814342</v>
+        <v>1.024080163727645</v>
       </c>
       <c r="E17">
-        <v>1.007279490550941</v>
+        <v>1.005220201430542</v>
       </c>
       <c r="F17">
-        <v>1.032900450933815</v>
+        <v>1.031120326332257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052731457518545</v>
+        <v>1.051542120075377</v>
       </c>
       <c r="J17">
-        <v>1.027799567330728</v>
+        <v>1.025249987077511</v>
       </c>
       <c r="K17">
-        <v>1.039924928135932</v>
+        <v>1.037678754913114</v>
       </c>
       <c r="L17">
-        <v>1.02116107654943</v>
+        <v>1.019137316535903</v>
       </c>
       <c r="M17">
-        <v>1.046355200947936</v>
+        <v>1.044603852099518</v>
       </c>
       <c r="N17">
-        <v>1.029259160606596</v>
+        <v>1.023952089288134</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046384547003212</v>
+        <v>1.045000107422049</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039380346723985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037808845718284</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022202124141518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001234665955618</v>
+        <v>0.9984636828444489</v>
       </c>
       <c r="D18">
-        <v>1.026852383600672</v>
+        <v>1.024474791049012</v>
       </c>
       <c r="E18">
-        <v>1.007846125733372</v>
+        <v>1.005718488370312</v>
       </c>
       <c r="F18">
-        <v>1.033189015325489</v>
+        <v>1.031332197765301</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052872778677318</v>
+        <v>1.051633990290395</v>
       </c>
       <c r="J18">
-        <v>1.028251110107918</v>
+        <v>1.025584856296976</v>
       </c>
       <c r="K18">
-        <v>1.040223166639534</v>
+        <v>1.037884020111606</v>
       </c>
       <c r="L18">
-        <v>1.021530785399388</v>
+        <v>1.019439237959031</v>
       </c>
       <c r="M18">
-        <v>1.046458441174582</v>
+        <v>1.044631158875566</v>
       </c>
       <c r="N18">
-        <v>1.029711344626322</v>
+        <v>1.024057441887193</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046229600409311</v>
+        <v>1.044784836679611</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039579621704486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037941233954759</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022163886272476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0010016410493</v>
+        <v>0.9984057823021703</v>
       </c>
       <c r="D19">
-        <v>1.026559833207952</v>
+        <v>1.024312323611796</v>
       </c>
       <c r="E19">
-        <v>1.007452075772209</v>
+        <v>1.00554046533125</v>
       </c>
       <c r="F19">
-        <v>1.032645548766874</v>
+        <v>1.030891246639874</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052664236454009</v>
+        <v>1.051493033305683</v>
       </c>
       <c r="J19">
-        <v>1.027892454648772</v>
+        <v>1.025394172514146</v>
       </c>
       <c r="K19">
-        <v>1.039873161826649</v>
+        <v>1.037661821684671</v>
       </c>
       <c r="L19">
-        <v>1.021079544550591</v>
+        <v>1.019200209572588</v>
       </c>
       <c r="M19">
-        <v>1.045861951185495</v>
+        <v>1.044135439157029</v>
       </c>
       <c r="N19">
-        <v>1.029352179835286</v>
+        <v>1.023927334308228</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04543416351842</v>
+        <v>1.044068633086051</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03933852815463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037791137512065</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022002026670153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9976097295665327</v>
+        <v>0.9960347390596352</v>
       </c>
       <c r="D20">
-        <v>1.024047091055364</v>
+        <v>1.02257410803496</v>
       </c>
       <c r="E20">
-        <v>1.004319848953469</v>
+        <v>1.003450117934936</v>
       </c>
       <c r="F20">
-        <v>1.02979128441443</v>
+        <v>1.028655946370883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051464678213082</v>
+        <v>1.050697784653865</v>
       </c>
       <c r="J20">
-        <v>1.025233104100469</v>
+        <v>1.023719375269683</v>
       </c>
       <c r="K20">
-        <v>1.037679881838518</v>
+        <v>1.036231302605559</v>
       </c>
       <c r="L20">
-        <v>1.018287161960924</v>
+        <v>1.017432571258286</v>
       </c>
       <c r="M20">
-        <v>1.043329764749497</v>
+        <v>1.042212959788665</v>
       </c>
       <c r="N20">
-        <v>1.026689052704173</v>
+        <v>1.02311161116556</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042905658385925</v>
+        <v>1.042021827958047</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037791729583572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036784028549688</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021494091244275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9903971201126031</v>
+        <v>0.991037137349316</v>
       </c>
       <c r="D21">
-        <v>1.019216699442895</v>
+        <v>1.019425042551876</v>
       </c>
       <c r="E21">
-        <v>0.9983512645034085</v>
+        <v>0.9996246763052301</v>
       </c>
       <c r="F21">
-        <v>1.025139272053808</v>
+        <v>1.025360462446866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049419746854851</v>
+        <v>1.049530840320986</v>
       </c>
       <c r="J21">
-        <v>1.020301893694856</v>
+        <v>1.020914431348061</v>
       </c>
       <c r="K21">
-        <v>1.0338429275969</v>
+        <v>1.034047515673223</v>
       </c>
       <c r="L21">
-        <v>1.013363940152452</v>
+        <v>1.014613162799691</v>
       </c>
       <c r="M21">
-        <v>1.039659527919907</v>
+        <v>1.039876791334188</v>
       </c>
       <c r="N21">
-        <v>1.021750839414167</v>
+        <v>1.022351780003233</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039960246374317</v>
+        <v>1.040132195907973</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03508211985031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035243583788557</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021086095670327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9857703470947438</v>
+        <v>0.987821521330841</v>
       </c>
       <c r="D22">
-        <v>1.016131216530694</v>
+        <v>1.017412857952467</v>
       </c>
       <c r="E22">
-        <v>0.9945391864715045</v>
+        <v>0.9971807257823342</v>
       </c>
       <c r="F22">
-        <v>1.022201000558162</v>
+        <v>1.023288700501418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048103353525031</v>
+        <v>1.048773917703176</v>
       </c>
       <c r="J22">
-        <v>1.017148052995306</v>
+        <v>1.019105705135962</v>
       </c>
       <c r="K22">
-        <v>1.031389744022396</v>
+        <v>1.032647079079864</v>
       </c>
       <c r="L22">
-        <v>1.010219604943679</v>
+        <v>1.01280824070185</v>
       </c>
       <c r="M22">
-        <v>1.037345118262841</v>
+        <v>1.038412503200708</v>
       </c>
       <c r="N22">
-        <v>1.018592519899071</v>
+        <v>1.021812265400992</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038128542597285</v>
+        <v>1.038973308502069</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033334121291227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034238629488794</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020829517648162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9882069611405742</v>
+        <v>0.9894471112560679</v>
       </c>
       <c r="D23">
-        <v>1.017748719011232</v>
+        <v>1.018413497565333</v>
       </c>
       <c r="E23">
-        <v>0.9965376205388997</v>
+        <v>0.9983869190164187</v>
       </c>
       <c r="F23">
-        <v>1.023745720509503</v>
+        <v>1.024334710179607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048792491605005</v>
+        <v>1.049141525994969</v>
       </c>
       <c r="J23">
-        <v>1.018801139245906</v>
+        <v>1.01998649911444</v>
       </c>
       <c r="K23">
-        <v>1.032671718266853</v>
+        <v>1.033324221420663</v>
       </c>
       <c r="L23">
-        <v>1.011863571368329</v>
+        <v>1.013676845055654</v>
       </c>
       <c r="M23">
-        <v>1.038558733282355</v>
+        <v>1.039137011098099</v>
       </c>
       <c r="N23">
-        <v>1.020247953721759</v>
+        <v>1.021984570880466</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039089040043717</v>
+        <v>1.039546708914701</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034230889285022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034706820056316</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020931005330926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9975783921747809</v>
+        <v>0.9960323337172479</v>
       </c>
       <c r="D24">
-        <v>1.023994944354947</v>
+        <v>1.022542979756815</v>
       </c>
       <c r="E24">
-        <v>1.004254385087078</v>
+        <v>1.003421224568964</v>
       </c>
       <c r="F24">
-        <v>1.029713534230811</v>
+        <v>1.028594983333163</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05142629823114</v>
+        <v>1.050670334015177</v>
       </c>
       <c r="J24">
-        <v>1.02516997963046</v>
+        <v>1.023683975823901</v>
       </c>
       <c r="K24">
-        <v>1.037613389576528</v>
+        <v>1.036185452249459</v>
       </c>
       <c r="L24">
-        <v>1.018207198614987</v>
+        <v>1.017388524873499</v>
       </c>
       <c r="M24">
-        <v>1.04323819424972</v>
+        <v>1.042137882217734</v>
       </c>
       <c r="N24">
-        <v>1.026625838590176</v>
+        <v>1.023083808082096</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042792517398393</v>
+        <v>1.041921696434781</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037717381897998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036721580701389</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021459748284361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007944220134389</v>
+        <v>1.004372643624121</v>
       </c>
       <c r="D25">
-        <v>1.030927816513484</v>
+        <v>1.027909811951959</v>
       </c>
       <c r="E25">
-        <v>1.012819832241171</v>
+        <v>1.01012505807985</v>
       </c>
       <c r="F25">
-        <v>1.03635871215695</v>
+        <v>1.03399044929614</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.054284910765161</v>
+        <v>1.052709222246371</v>
       </c>
       <c r="J25">
-        <v>1.032207155770215</v>
+        <v>1.028753741663845</v>
       </c>
       <c r="K25">
-        <v>1.043064266104162</v>
+        <v>1.040089780151852</v>
       </c>
       <c r="L25">
-        <v>1.025222343876308</v>
+        <v>1.022568202881787</v>
       </c>
       <c r="M25">
-        <v>1.048417657430374</v>
+        <v>1.04608306538512</v>
       </c>
       <c r="N25">
-        <v>1.033673008327225</v>
+        <v>1.025830376548881</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046891690747678</v>
+        <v>1.045044031550044</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041568541758905</v>
+        <v>1.039478942274791</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022396686270507</v>
       </c>
     </row>
   </sheetData>
